--- a/DATA_goal/Junction_Flooding_387.xlsx
+++ b/DATA_goal/Junction_Flooding_387.xlsx
@@ -446,8 +446,8 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>44781.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.1</v>
+        <v>60.97</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.19</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.55</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.68</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.97</v>
+        <v>49.72</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_387.xlsx
+++ b/DATA_goal/Junction_Flooding_387.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.54861111111</v>
+        <v>45068.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.55555555555</v>
+        <v>45068.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.96</v>
+        <v>10.089</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.72</v>
+        <v>6.826</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.51</v>
+        <v>1.64</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.51</v>
+        <v>21.283</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.04</v>
+        <v>17.604</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.71</v>
+        <v>7.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.63</v>
+        <v>33.495</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.06</v>
+        <v>12.216</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.45</v>
+        <v>5.176</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.41</v>
+        <v>7.827</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.22</v>
+        <v>8.614000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.88</v>
+        <v>8.913</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.18</v>
+        <v>2.539</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.98</v>
+        <v>7.895</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.56</v>
+        <v>11.072</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.31</v>
+        <v>6.89</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>1.56</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.884</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.97</v>
+        <v>112.867</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.6</v>
+        <v>22.214</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.76</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.18</v>
+        <v>14.571</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.56</v>
+        <v>7.818</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.67</v>
+        <v>1.182</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.27</v>
+        <v>15.689</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.65</v>
+        <v>6.437</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.29</v>
+        <v>5.997</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.08</v>
+        <v>6.911</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.98</v>
+        <v>8.865</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.19</v>
+        <v>30.477</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.32</v>
+        <v>3.967</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.21</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.5625</v>
+        <v>45068.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.68</v>
+        <v>21.619</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.94</v>
+        <v>15.762</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.511</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.91</v>
+        <v>46.599</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.01</v>
+        <v>38.53</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5</v>
+        <v>17.013</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.37</v>
+        <v>63.837</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.66</v>
+        <v>26.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.61</v>
+        <v>11.543</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.55</v>
+        <v>17.281</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.27</v>
+        <v>18.804</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.49</v>
+        <v>19.722</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.38</v>
+        <v>5.434</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.51</v>
+        <v>16.918</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.06</v>
+        <v>24.015</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.82</v>
+        <v>14.307</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>1.122</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.97</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.81999999999999</v>
+        <v>250.194</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.66</v>
+        <v>47.262</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.21</v>
+        <v>15.616</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.02</v>
+        <v>31.672</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.55</v>
+        <v>16.845</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.68</v>
+        <v>2.338</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>31.14</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.97</v>
+        <v>13.794</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.19</v>
+        <v>12.329</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.65</v>
+        <v>14.436</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.19</v>
+        <v>19.654</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.7</v>
+        <v>57.73</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.55</v>
+        <v>8.759</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.64</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.56944444445</v>
+        <v>45068.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.37</v>
+        <v>10.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.79</v>
+        <v>7.59</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>22.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.48</v>
+        <v>18.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.83</v>
+        <v>8.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.39</v>
+        <v>35.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.91</v>
+        <v>12.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.78</v>
+        <v>5.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.25</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.81</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.24</v>
+        <v>9.59</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.06</v>
+        <v>2.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.47</v>
+        <v>8.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.44</v>
+        <v>11.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.97</v>
+        <v>7.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.54</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.72</v>
+        <v>118.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.57</v>
+        <v>23.26</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.22</v>
+        <v>7.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7</v>
+        <v>15.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.26</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.52</v>
+        <v>1.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.64</v>
+        <v>16.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.06</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.2</v>
+        <v>6.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.82</v>
+        <v>7.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.75</v>
+        <v>9.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.06</v>
+        <v>32.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.96</v>
+        <v>4.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.47</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_387.xlsx
+++ b/DATA_goal/Junction_Flooding_387.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45068.50694444445</v>
+        <v>44781.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.619</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.458</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.456</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.361</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.513</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.013</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.703</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.178</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.065</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.024</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.048</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.877</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.432</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.918</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.745</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.242</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.744</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.457</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>250.169</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.091</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.616</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.148</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.247</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.407</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.662</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.794</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.753</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.55</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.409</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>49.22</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.641</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.523</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45068.51388888889</v>
+        <v>44781.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.089</v>
+        <v>4.962</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.826</v>
+        <v>4.725</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.514</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.283</v>
+        <v>11.511</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.604</v>
+        <v>10.038</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.94</v>
+        <v>4.711</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.495</v>
+        <v>15.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.216</v>
+        <v>7.059</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.176</v>
+        <v>3.446</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.827</v>
+        <v>5.413</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.614000000000001</v>
+        <v>6.216</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.913</v>
+        <v>4.88</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.539</v>
+        <v>1.176</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.895</v>
+        <v>3.981</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.072</v>
+        <v>6.564</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.89</v>
+        <v>3.315</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.063</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.884</v>
+        <v>0.022</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.867</v>
+        <v>60.97</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.214</v>
+        <v>12.603</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.288</v>
+        <v>3.761</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.571</v>
+        <v>8.180999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.818</v>
+        <v>5.556</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.182</v>
+        <v>0.669</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.689</v>
+        <v>8.266999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.437</v>
+        <v>3.651</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.997</v>
+        <v>4.289</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.911</v>
+        <v>3.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.865</v>
+        <v>5.985</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.477</v>
+        <v>14.194</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.967</v>
+        <v>2.318</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.112</v>
+        <v>5.206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45068.52083333334</v>
+        <v>44781.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.619</v>
+        <v>5.683</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.762</v>
+        <v>4.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.511</v>
+        <v>0.427</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>46.599</v>
+        <v>12.908</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.53</v>
+        <v>11.012</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.013</v>
+        <v>5.001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>63.837</v>
+        <v>18.366</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.178</v>
+        <v>7.657</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.543</v>
+        <v>3.607</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.281</v>
+        <v>5.548</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.804</v>
+        <v>6.265</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.722</v>
+        <v>5.492</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.434</v>
+        <v>1.376</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.918</v>
+        <v>4.509</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.015</v>
+        <v>7.058</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.307</v>
+        <v>3.819</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.122</v>
+        <v>0.059</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.055</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>250.194</v>
+        <v>66.818</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>47.262</v>
+        <v>13.659</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.616</v>
+        <v>4.206</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.672</v>
+        <v>9.02</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.845</v>
+        <v>5.554</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.338</v>
+        <v>0.679</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.14</v>
+        <v>9.305</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.794</v>
+        <v>3.971</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.329</v>
+        <v>4.186</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.436</v>
+        <v>3.648</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.654</v>
+        <v>6.188</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.73</v>
+        <v>16.698</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.759</v>
+        <v>2.547</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.524</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45068.52777777778</v>
+        <v>44781.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.57</v>
+        <v>4.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.59</v>
+        <v>3.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.325</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.67</v>
+        <v>9.946</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.74</v>
+        <v>8.475</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.32</v>
+        <v>3.832</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.67</v>
+        <v>15.394</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.8</v>
+        <v>5.907</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>2.785</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>4.254</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.814</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.239</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.442</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>49.724</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>10.567</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.999</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.262</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>7.638</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>4.748</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>14.062</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.964</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>4.339</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W6" s="4" t="n">
         <v>5.61</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>118.59</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>9.550000000000001</v>
+      <c r="X6" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_387.xlsx
+++ b/DATA_goal/Junction_Flooding_387.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.54861111111</v>
+        <v>45068.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.55555555555</v>
+        <v>45068.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.962</v>
+        <v>10.089</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.725</v>
+        <v>6.826</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.514</v>
+        <v>1.64</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.511</v>
+        <v>21.283</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.038</v>
+        <v>17.604</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.711</v>
+        <v>7.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.63</v>
+        <v>33.495</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.059</v>
+        <v>12.216</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.446</v>
+        <v>5.176</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.413</v>
+        <v>7.827</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.216</v>
+        <v>8.614000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.88</v>
+        <v>8.913</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.176</v>
+        <v>2.539</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.981</v>
+        <v>7.895</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.564</v>
+        <v>11.072</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.315</v>
+        <v>6.89</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.063</v>
+        <v>1.56</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.022</v>
+        <v>0.884</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.97</v>
+        <v>112.867</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.603</v>
+        <v>22.214</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.761</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.180999999999999</v>
+        <v>14.571</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.556</v>
+        <v>7.818</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.669</v>
+        <v>1.182</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.266999999999999</v>
+        <v>15.689</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.651</v>
+        <v>6.437</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.289</v>
+        <v>5.997</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.08</v>
+        <v>6.911</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.985</v>
+        <v>8.865</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.237</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.194</v>
+        <v>30.477</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.318</v>
+        <v>3.967</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.206</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.5625</v>
+        <v>45068.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.683</v>
+        <v>21.619</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.94</v>
+        <v>15.762</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.427</v>
+        <v>1.511</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.908</v>
+        <v>46.599</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.012</v>
+        <v>38.53</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.001</v>
+        <v>17.013</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.366</v>
+        <v>63.837</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.657</v>
+        <v>26.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.607</v>
+        <v>11.543</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.548</v>
+        <v>17.281</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.265</v>
+        <v>18.804</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.492</v>
+        <v>19.722</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.376</v>
+        <v>5.434</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.509</v>
+        <v>16.918</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.058</v>
+        <v>24.015</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.819</v>
+        <v>14.307</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.059</v>
+        <v>1.122</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.055</v>
+        <v>0.97</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.818</v>
+        <v>250.194</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.659</v>
+        <v>47.262</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.206</v>
+        <v>15.616</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.02</v>
+        <v>31.672</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.554</v>
+        <v>16.845</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.679</v>
+        <v>2.338</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.305</v>
+        <v>31.14</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.971</v>
+        <v>13.794</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.186</v>
+        <v>12.329</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.648</v>
+        <v>14.436</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.188</v>
+        <v>19.654</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.175</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.698</v>
+        <v>57.73</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.547</v>
+        <v>8.759</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.64</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.56944444445</v>
+        <v>45068.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.37</v>
+        <v>10.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.79</v>
+        <v>7.59</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.325</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.946</v>
+        <v>22.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.475</v>
+        <v>18.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.832</v>
+        <v>8.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.394</v>
+        <v>35.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.907</v>
+        <v>12.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.785</v>
+        <v>5.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.254</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.814</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.239</v>
+        <v>9.59</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.06</v>
+        <v>2.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.465</v>
+        <v>8.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.442</v>
+        <v>11.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.969</v>
+        <v>7.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.044</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.031</v>
+        <v>0.54</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.724</v>
+        <v>118.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.567</v>
+        <v>23.26</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.224</v>
+        <v>7.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.999</v>
+        <v>15.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.262</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.516</v>
+        <v>1.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.638</v>
+        <v>16.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.057</v>
+        <v>6.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.202</v>
+        <v>6.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.82</v>
+        <v>7.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.748</v>
+        <v>9.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.138</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.062</v>
+        <v>32.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.964</v>
+        <v>4.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.339</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.47</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
   </sheetData>
